--- a/results/acl-en/mbert/results_pos_postprocessed.xlsx
+++ b/results/acl-en/mbert/results_pos_postprocessed.xlsx
@@ -648,28 +648,28 @@
         <v>2</v>
       </c>
       <c r="C2" s="8">
-        <v>0.9484492281546523</v>
+        <v>0.956737410523672</v>
       </c>
       <c r="D2" s="9">
-        <v>0.394656092149365</v>
+        <v>0.3238101218133869</v>
       </c>
       <c r="E2" s="9">
-        <v>0.8569607704291177</v>
+        <v>0.8569006655782996</v>
       </c>
       <c r="F2" s="9">
-        <v>0.7284615021479488</v>
+        <v>0.7210850182092177</v>
       </c>
       <c r="G2" s="9">
-        <v>0.8181560685455318</v>
+        <v>0.7504709280421952</v>
       </c>
       <c r="H2" s="9">
-        <v>0.7734504083463154</v>
+        <v>0.7426221273389426</v>
       </c>
       <c r="I2" s="9">
-        <v>0.570835103620828</v>
+        <v>0.5653020218510612</v>
       </c>
       <c r="J2" s="9">
-        <v>0.5616296086484445</v>
+        <v>0.5668717819917116</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>24</v>
@@ -678,37 +678,37 @@
         <v>24</v>
       </c>
       <c r="M2" s="9">
-        <v>0.758957654723127</v>
+        <v>0.7754615094813513</v>
       </c>
       <c r="N2" s="9">
-        <v>0.6649671906717651</v>
+        <v>0.6815898530704508</v>
       </c>
       <c r="O2" s="9">
-        <v>0.586980125572393</v>
+        <v>0.5967600150696973</v>
       </c>
       <c r="P2" s="9">
-        <v>0.557805787659916</v>
+        <v>0.5688810749717443</v>
       </c>
       <c r="Q2" s="9">
-        <v>0.5008733418307133</v>
+        <v>0.5015069697350245</v>
       </c>
       <c r="R2" s="9">
-        <v>0.6016145021951564</v>
+        <v>0.6132738917493407</v>
       </c>
       <c r="S2" s="9">
-        <v>0.6132275881603172</v>
+        <v>0.6128971493155846</v>
       </c>
       <c r="T2" s="9">
-        <v>0.7160930935183873</v>
+        <v>0.7084641466783875</v>
       </c>
       <c r="U2" s="9">
-        <v>0.6437237407354954</v>
+        <v>0.648185357277408</v>
       </c>
       <c r="V2" s="9">
-        <v>0.2239531699948072</v>
+        <v>0.2386035413788773</v>
       </c>
       <c r="W2" s="9">
-        <v>0.1907189727611764</v>
+        <v>0.1982921009669723</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -719,28 +719,28 @@
         <v>3</v>
       </c>
       <c r="C3" s="9">
-        <v>0.8714965138292469</v>
+        <v>0.8554390804597701</v>
       </c>
       <c r="D3" s="8">
-        <v>0.8981853442305029</v>
+        <v>0.982445977</v>
       </c>
       <c r="E3" s="9">
-        <v>0.8397284942512814</v>
+        <v>0.822939464</v>
       </c>
       <c r="F3" s="9">
-        <v>0.7610010620122823</v>
+        <v>0.751629119</v>
       </c>
       <c r="G3" s="9">
-        <v>0.8408366809807453</v>
+        <v>0.84709272</v>
       </c>
       <c r="H3" s="9">
-        <v>0.8144710717089163</v>
+        <v>0.786188506</v>
       </c>
       <c r="I3" s="9">
-        <v>0.6014683474165397</v>
+        <v>0.559114176</v>
       </c>
       <c r="J3" s="9">
-        <v>0.5479983377199058</v>
+        <v>0.574663602</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>24</v>
@@ -749,37 +749,37 @@
         <v>24</v>
       </c>
       <c r="M3" s="9">
-        <v>0.7337119637992335</v>
+        <v>0.7238620690000001</v>
       </c>
       <c r="N3" s="9">
-        <v>0.6829200720321374</v>
+        <v>0.667656705</v>
       </c>
       <c r="O3" s="9">
-        <v>0.6089947822874822</v>
+        <v>0.613115709</v>
       </c>
       <c r="P3" s="9">
-        <v>0.5997137184282219</v>
+        <v>0.589501916</v>
       </c>
       <c r="Q3" s="9">
-        <v>0.5631435563559126</v>
+        <v>0.568067433</v>
       </c>
       <c r="R3" s="9">
-        <v>0.6265872466177218</v>
+        <v>0.625072797</v>
       </c>
       <c r="S3" s="9">
-        <v>0.6205845684997923</v>
+        <v>0.640190038</v>
       </c>
       <c r="T3" s="9">
-        <v>0.7214757353280694</v>
+        <v>0.713131034</v>
       </c>
       <c r="U3" s="9">
-        <v>0.6420095119360946</v>
+        <v>0.642516475</v>
       </c>
       <c r="V3" s="9">
-        <v>0.4972987948469317</v>
+        <v>0.537970881</v>
       </c>
       <c r="W3" s="9">
-        <v>0.1961952255621739</v>
+        <v>0.2118068965517241</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -790,28 +790,28 @@
         <v>4</v>
       </c>
       <c r="C4" s="9">
-        <v>0.8650639946109802</v>
+        <v>0.8739039033351641</v>
       </c>
       <c r="D4" s="9">
-        <v>0.8317615358706635</v>
+        <v>0.844756728</v>
       </c>
       <c r="E4" s="8">
-        <v>0.8981138430447962</v>
+        <v>0.988238859</v>
       </c>
       <c r="F4" s="9">
-        <v>0.7250757830919502</v>
+        <v>0.777674665</v>
       </c>
       <c r="G4" s="9">
-        <v>0.8488127315594476</v>
+        <v>0.87651749</v>
       </c>
       <c r="H4" s="9">
-        <v>0.767009093971034</v>
+        <v>0.759095472</v>
       </c>
       <c r="I4" s="9">
-        <v>0.5632788817783766</v>
+        <v>0.563549933</v>
       </c>
       <c r="J4" s="9">
-        <v>0.5955708992926911</v>
+        <v>0.584685896</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>24</v>
@@ -820,37 +820,37 @@
         <v>24</v>
       </c>
       <c r="M4" s="9">
-        <v>0.7381694173122263</v>
+        <v>0.813753527</v>
       </c>
       <c r="N4" s="9">
-        <v>0.60500168406871</v>
+        <v>0.6331319480000001</v>
       </c>
       <c r="O4" s="9">
-        <v>0.5506483664533512</v>
+        <v>0.570178595</v>
       </c>
       <c r="P4" s="9">
-        <v>0.5133462445267767</v>
+        <v>0.520198481</v>
       </c>
       <c r="Q4" s="9">
-        <v>0.5322078140788145</v>
+        <v>0.532073256</v>
       </c>
       <c r="R4" s="9">
-        <v>0.5505641630178512</v>
+        <v>0.57754588</v>
       </c>
       <c r="S4" s="9">
-        <v>0.6405776355675311</v>
+        <v>0.634931157</v>
       </c>
       <c r="T4" s="9">
-        <v>0.7221286628494442</v>
+        <v>0.7232628169999999</v>
       </c>
       <c r="U4" s="9">
-        <v>0.6647019198383294</v>
+        <v>0.6829794890000001</v>
       </c>
       <c r="V4" s="9">
-        <v>0.5051364095655103</v>
+        <v>0.520577262</v>
       </c>
       <c r="W4" s="9">
-        <v>0.203014482990906</v>
+        <v>0.1805458229957766</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -864,25 +864,25 @@
         <v>0.8477126189745164</v>
       </c>
       <c r="D5" s="9">
-        <v>0.829290758366595</v>
+        <v>0.829290758</v>
       </c>
       <c r="E5" s="9">
-        <v>0.8850936444580902</v>
+        <v>0.885093644</v>
       </c>
       <c r="F5" s="8">
-        <v>0.9656892846177464</v>
+        <v>0.965689285</v>
       </c>
       <c r="G5" s="9">
-        <v>0.8583819465766043</v>
+        <v>0.858381947</v>
       </c>
       <c r="H5" s="9">
-        <v>0.8271415412956709</v>
+        <v>0.827141541</v>
       </c>
       <c r="I5" s="9">
-        <v>0.6410807491556647</v>
+        <v>0.641080749</v>
       </c>
       <c r="J5" s="9">
-        <v>0.6007829290758366</v>
+        <v>0.600782929</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>24</v>
@@ -891,34 +891,34 @@
         <v>24</v>
       </c>
       <c r="M5" s="9">
-        <v>0.7704175621737795</v>
+        <v>0.779321461</v>
       </c>
       <c r="N5" s="9">
-        <v>0.77655818237642</v>
+        <v>0.776558182</v>
       </c>
       <c r="O5" s="9">
-        <v>0.723672090881179</v>
+        <v>0.723672091</v>
       </c>
       <c r="P5" s="9">
-        <v>0.606002456248081</v>
+        <v>0.606002456</v>
       </c>
       <c r="Q5" s="9">
-        <v>0.6220448265274793</v>
+        <v>0.622044827</v>
       </c>
       <c r="R5" s="9">
-        <v>0.6947344181762358</v>
+        <v>0.694734418</v>
       </c>
       <c r="S5" s="9">
-        <v>0.7480810561866749</v>
+        <v>0.748081056</v>
       </c>
       <c r="T5" s="9">
-        <v>0.7457783236106846</v>
+        <v>0.745778324</v>
       </c>
       <c r="U5" s="9">
-        <v>0.6424623887012588</v>
+        <v>0.642462389</v>
       </c>
       <c r="V5" s="9">
-        <v>0.6727817009517961</v>
+        <v>0.672781701</v>
       </c>
       <c r="W5" s="9">
         <v>0.2521492170709241</v>
@@ -935,25 +935,25 @@
         <v>0.8955482880598011</v>
       </c>
       <c r="D6" s="9">
-        <v>0.8738570379763733</v>
+        <v>0.873857038</v>
       </c>
       <c r="E6" s="9">
-        <v>0.8544683975171862</v>
+        <v>0.854468398</v>
       </c>
       <c r="F6" s="9">
-        <v>0.7756457318294067</v>
+        <v>0.775645732</v>
       </c>
       <c r="G6" s="8">
-        <v>0.9789094306881132</v>
+        <v>0.9789094310000001</v>
       </c>
       <c r="H6" s="9">
-        <v>0.7917639991990923</v>
+        <v>0.7917639990000001</v>
       </c>
       <c r="I6" s="9">
-        <v>0.6221384235466862</v>
+        <v>0.622138424</v>
       </c>
       <c r="J6" s="9">
-        <v>0.5662751117933658</v>
+        <v>0.566275112</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>24</v>
@@ -962,34 +962,34 @@
         <v>24</v>
       </c>
       <c r="M6" s="9">
-        <v>0.8279049589534806</v>
+        <v>0.801241407</v>
       </c>
       <c r="N6" s="9">
-        <v>0.7456116932523527</v>
+        <v>0.745611693</v>
       </c>
       <c r="O6" s="9">
-        <v>0.6140959754388307</v>
+        <v>0.614095975</v>
       </c>
       <c r="P6" s="9">
-        <v>0.5691116598811987</v>
+        <v>0.56911166</v>
       </c>
       <c r="Q6" s="9">
-        <v>0.5502903290395782</v>
+        <v>0.550290329</v>
       </c>
       <c r="R6" s="9">
-        <v>0.5960421811386237</v>
+        <v>0.5960421809999999</v>
       </c>
       <c r="S6" s="9">
-        <v>0.6836748314756724</v>
+        <v>0.683674831</v>
       </c>
       <c r="T6" s="9">
-        <v>0.7661349529466729</v>
+        <v>0.766134953</v>
       </c>
       <c r="U6" s="9">
-        <v>0.6691250083427885</v>
+        <v>0.669125008</v>
       </c>
       <c r="V6" s="9">
-        <v>0.5760194887539211</v>
+        <v>0.576019489</v>
       </c>
       <c r="W6" s="9">
         <v>0.1827738103183608</v>
@@ -1006,25 +1006,25 @@
         <v>0.7888416774431923</v>
       </c>
       <c r="D7" s="9">
-        <v>0.8044522445963421</v>
+        <v>0.804452245</v>
       </c>
       <c r="E7" s="9">
-        <v>0.7745242933678183</v>
+        <v>0.774524293</v>
       </c>
       <c r="F7" s="9">
-        <v>0.73766857565121</v>
+        <v>0.737668576</v>
       </c>
       <c r="G7" s="9">
-        <v>0.7579900240162571</v>
+        <v>0.757990024</v>
       </c>
       <c r="H7" s="8">
-        <v>0.9757990024016258</v>
+        <v>0.975799002</v>
       </c>
       <c r="I7" s="9">
-        <v>0.5254018104563088</v>
+        <v>0.52540181</v>
       </c>
       <c r="J7" s="9">
-        <v>0.5047108812118973</v>
+        <v>0.5047108809999999</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>24</v>
@@ -1033,34 +1033,34 @@
         <v>24</v>
       </c>
       <c r="M7" s="9">
-        <v>0.67762793275448</v>
+        <v>0.681045631</v>
       </c>
       <c r="N7" s="9">
-        <v>0.6591538887862554</v>
+        <v>0.659153889</v>
       </c>
       <c r="O7" s="9">
-        <v>0.5773138740070202</v>
+        <v>0.577313874</v>
       </c>
       <c r="P7" s="9">
-        <v>0.5190282652872714</v>
+        <v>0.519028265</v>
       </c>
       <c r="Q7" s="9">
-        <v>0.5503417698134122</v>
+        <v>0.55034177</v>
       </c>
       <c r="R7" s="9">
-        <v>0.6302420099759838</v>
+        <v>0.63024201</v>
       </c>
       <c r="S7" s="9">
-        <v>0.6095510807315722</v>
+        <v>0.609551081</v>
       </c>
       <c r="T7" s="9">
-        <v>0.6831701459449473</v>
+        <v>0.683170146</v>
       </c>
       <c r="U7" s="9">
-        <v>0.6662663957140218</v>
+        <v>0.666266396</v>
       </c>
       <c r="V7" s="9">
-        <v>0.6104747829299834</v>
+        <v>0.610474783</v>
       </c>
       <c r="W7" s="9">
         <v>0.2104925837758652</v>
@@ -1074,28 +1074,28 @@
         <v>8</v>
       </c>
       <c r="C8" s="9">
-        <v>0.6518795236983422</v>
+        <v>0.6485181485181485</v>
       </c>
       <c r="D8" s="9">
-        <v>0.4849404622927854</v>
+        <v>0.5141525139999999</v>
       </c>
       <c r="E8" s="9">
-        <v>0.562456222274107</v>
+        <v>0.567016317</v>
       </c>
       <c r="F8" s="9">
-        <v>0.3678262899836563</v>
+        <v>0.402347652</v>
       </c>
       <c r="G8" s="9">
-        <v>0.6010273173009573</v>
+        <v>0.622460872</v>
       </c>
       <c r="H8" s="9">
-        <v>0.5201494279710484</v>
+        <v>0.521312021</v>
       </c>
       <c r="I8" s="8">
-        <v>0.9188419332243755</v>
+        <v>0.949217449</v>
       </c>
       <c r="J8" s="9">
-        <v>0.5106700910576698</v>
+        <v>0.54045954</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>24</v>
@@ -1104,37 +1104,37 @@
         <v>24</v>
       </c>
       <c r="M8" s="9">
-        <v>0.5731496614522531</v>
+        <v>0.593739594</v>
       </c>
       <c r="N8" s="9">
-        <v>0.5490077048797571</v>
+        <v>0.582667333</v>
       </c>
       <c r="O8" s="9">
-        <v>0.5209432640672426</v>
+        <v>0.562187812</v>
       </c>
       <c r="P8" s="9">
-        <v>0.4995563857109503</v>
+        <v>0.538295038</v>
       </c>
       <c r="Q8" s="9">
-        <v>0.559981321503619</v>
+        <v>0.593822844</v>
       </c>
       <c r="R8" s="9">
-        <v>0.4982488909642774</v>
+        <v>0.510572761</v>
       </c>
       <c r="S8" s="9">
-        <v>0.4335279010039692</v>
+        <v>0.439227439</v>
       </c>
       <c r="T8" s="9">
-        <v>0.5040859210833528</v>
+        <v>0.532217782</v>
       </c>
       <c r="U8" s="9">
-        <v>0.4711650712117674</v>
+        <v>0.491008991</v>
       </c>
       <c r="V8" s="9">
-        <v>0.4247490077048798</v>
+        <v>0.423409923</v>
       </c>
       <c r="W8" s="9">
-        <v>0.2526266635535839</v>
+        <v>0.2757242757242757</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1148,25 +1148,25 @@
         <v>0.6126306984525304</v>
       </c>
       <c r="D9" s="9">
-        <v>0.5406942701798411</v>
+        <v>0.54069427</v>
       </c>
       <c r="E9" s="9">
-        <v>0.5872020075282308</v>
+        <v>0.587202008</v>
       </c>
       <c r="F9" s="9">
-        <v>0.5648682559598495</v>
+        <v>0.564868256</v>
       </c>
       <c r="G9" s="9">
-        <v>0.5613550815558344</v>
+        <v>0.5613550819999999</v>
       </c>
       <c r="H9" s="9">
-        <v>0.5371810957758261</v>
+        <v>0.537181096</v>
       </c>
       <c r="I9" s="9">
-        <v>0.5622751986616479</v>
+        <v>0.562275199</v>
       </c>
       <c r="J9" s="8">
-        <v>0.8945211208699289</v>
+        <v>0.894521121</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>24</v>
@@ -1175,34 +1175,34 @@
         <v>24</v>
       </c>
       <c r="M9" s="9">
-        <v>0.6282726892513593</v>
+        <v>0.627101631</v>
       </c>
       <c r="N9" s="9">
-        <v>0.550564617314931</v>
+        <v>0.550564617</v>
       </c>
       <c r="O9" s="9">
-        <v>0.5733166039314095</v>
+        <v>0.573316604</v>
       </c>
       <c r="P9" s="9">
-        <v>0.5038895859473024</v>
+        <v>0.503889586</v>
       </c>
       <c r="Q9" s="9">
-        <v>0.5169385194479298</v>
+        <v>0.516938519</v>
       </c>
       <c r="R9" s="9">
-        <v>0.5553324968632372</v>
+        <v>0.555332497</v>
       </c>
       <c r="S9" s="9">
-        <v>0.5375993308239231</v>
+        <v>0.537599331</v>
       </c>
       <c r="T9" s="9">
-        <v>0.5989125888749477</v>
+        <v>0.598912589</v>
       </c>
       <c r="U9" s="9">
-        <v>0.551401087411125</v>
+        <v>0.551401087</v>
       </c>
       <c r="V9" s="9">
-        <v>0.4996235884567127</v>
+        <v>0.499623588</v>
       </c>
       <c r="W9" s="9">
         <v>0.3210372229192807</v>
@@ -1219,25 +1219,25 @@
         <v>0.4822596541528537</v>
       </c>
       <c r="D10" s="9">
-        <v>0.3516709972224711</v>
+        <v>0.351670997</v>
       </c>
       <c r="E10" s="9">
-        <v>0.4116566615894633</v>
+        <v>0.411656662</v>
       </c>
       <c r="F10" s="9">
-        <v>0.444270226682197</v>
+        <v>0.444270227</v>
       </c>
       <c r="G10" s="9">
-        <v>0.3193262252486336</v>
+        <v>0.319326225</v>
       </c>
       <c r="H10" s="9">
-        <v>0.4361616342621629</v>
+        <v>0.436161634</v>
       </c>
       <c r="I10" s="9">
-        <v>0.463981722067915</v>
+        <v>0.463981722</v>
       </c>
       <c r="J10" s="9">
-        <v>0.5140220410357494</v>
+        <v>0.514022041</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>24</v>
@@ -1246,34 +1246,34 @@
         <v>24</v>
       </c>
       <c r="M10" s="9">
-        <v>0.557476928590628</v>
+        <v>0.388585252</v>
       </c>
       <c r="N10" s="9">
-        <v>0.4663112624316818</v>
+        <v>0.466311262</v>
       </c>
       <c r="O10" s="9">
-        <v>0.4727622972851895</v>
+        <v>0.472762297</v>
       </c>
       <c r="P10" s="9">
-        <v>0.3951258847773497</v>
+        <v>0.395125885</v>
       </c>
       <c r="Q10" s="9">
-        <v>0.4317713466535257</v>
+        <v>0.431771347</v>
       </c>
       <c r="R10" s="9">
-        <v>0.4454349968640803</v>
+        <v>0.445434997</v>
       </c>
       <c r="S10" s="9">
-        <v>0.4371920078845982</v>
+        <v>0.437192008</v>
       </c>
       <c r="T10" s="8">
-        <v>0.5891497177672251</v>
+        <v>0.589149718</v>
       </c>
       <c r="U10" s="9">
-        <v>0.508601379804677</v>
+        <v>0.50860138</v>
       </c>
       <c r="V10" s="9">
-        <v>0.4043544485261177</v>
+        <v>0.404354449</v>
       </c>
       <c r="W10" s="9">
         <v>0.271122659259923</v>
@@ -1290,25 +1290,25 @@
         <v>0.5773818077309958</v>
       </c>
       <c r="D11" s="9">
-        <v>0.3482540594913062</v>
+        <v>0.348254059</v>
       </c>
       <c r="E11" s="9">
-        <v>0.4640034487713752</v>
+        <v>0.464003449</v>
       </c>
       <c r="F11" s="9">
-        <v>0.3678689466877425</v>
+        <v>0.367868947</v>
       </c>
       <c r="G11" s="9">
-        <v>0.3974709009915218</v>
+        <v>0.397470901</v>
       </c>
       <c r="H11" s="9">
-        <v>0.4539445322603822</v>
+        <v>0.453944532</v>
       </c>
       <c r="I11" s="8">
-        <v>0.7048426498060066</v>
+        <v>0.70484265</v>
       </c>
       <c r="J11" s="9">
-        <v>0.4969104756430522</v>
+        <v>0.496910476</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>24</v>
@@ -1317,34 +1317,34 @@
         <v>24</v>
       </c>
       <c r="M11" s="9">
-        <v>0.5056761028883461</v>
+        <v>0.492527662</v>
       </c>
       <c r="N11" s="9">
-        <v>0.4655841356516741</v>
+        <v>0.465584136</v>
       </c>
       <c r="O11" s="9">
-        <v>0.4347607414858456</v>
+        <v>0.434760741</v>
       </c>
       <c r="P11" s="9">
-        <v>0.4813191550510131</v>
+        <v>0.481319155</v>
       </c>
       <c r="Q11" s="9">
-        <v>0.4855582698663601</v>
+        <v>0.48555827</v>
       </c>
       <c r="R11" s="9">
-        <v>0.450064664463285</v>
+        <v>0.450064664</v>
       </c>
       <c r="S11" s="9">
-        <v>0.3494036499497054</v>
+        <v>0.34940365</v>
       </c>
       <c r="T11" s="9">
-        <v>0.4863486133065096</v>
+        <v>0.486348613</v>
       </c>
       <c r="U11" s="9">
-        <v>0.4605546773961776</v>
+        <v>0.460554677</v>
       </c>
       <c r="V11" s="9">
-        <v>0.4019974134214686</v>
+        <v>0.401997413</v>
       </c>
       <c r="W11" s="9">
         <v>0.1960770225607127</v>
@@ -1358,28 +1358,28 @@
         <v>12</v>
       </c>
       <c r="C12" s="9">
-        <v>0.8282115869017632</v>
+        <v>0.8256366723259763</v>
       </c>
       <c r="D12" s="9">
-        <v>0.7453400503778338</v>
+        <v>0.73811545</v>
       </c>
       <c r="E12" s="9">
-        <v>0.8025188916876574</v>
+        <v>0.820288625</v>
       </c>
       <c r="F12" s="9">
-        <v>0.7477581863979849</v>
+        <v>0.750169779</v>
       </c>
       <c r="G12" s="9">
-        <v>0.8038790931989924</v>
+        <v>0.8225806450000001</v>
       </c>
       <c r="H12" s="9">
-        <v>0.7140050377833753</v>
+        <v>0.664601019</v>
       </c>
       <c r="I12" s="9">
-        <v>0.6330982367758187</v>
+        <v>0.628947368</v>
       </c>
       <c r="J12" s="9">
-        <v>0.5950629722921914</v>
+        <v>0.580730051</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>24</v>
@@ -1388,37 +1388,37 @@
         <v>24</v>
       </c>
       <c r="M12" s="8">
-        <v>0.9049874055415618</v>
+        <v>0.927589134</v>
       </c>
       <c r="N12" s="9">
-        <v>0.7392443324937028</v>
+        <v>0.729881154</v>
       </c>
       <c r="O12" s="9">
-        <v>0.6463476070528967</v>
+        <v>0.667996604</v>
       </c>
       <c r="P12" s="9">
-        <v>0.5987405541561713</v>
+        <v>0.599235993</v>
       </c>
       <c r="Q12" s="9">
-        <v>0.5791435768261964</v>
+        <v>0.579541596</v>
       </c>
       <c r="R12" s="9">
-        <v>0.6411586901763224</v>
+        <v>0.638794567</v>
       </c>
       <c r="S12" s="9">
-        <v>0.6859949622166247</v>
+        <v>0.615534805</v>
       </c>
       <c r="T12" s="9">
-        <v>0.7662468513853904</v>
+        <v>0.734380306</v>
       </c>
       <c r="U12" s="9">
-        <v>0.6704785894206549</v>
+        <v>0.66672326</v>
       </c>
       <c r="V12" s="9">
-        <v>0.5644836272040302</v>
+        <v>0.579117148</v>
       </c>
       <c r="W12" s="9">
-        <v>0.2358186397984887</v>
+        <v>0.216893039049236</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1429,28 +1429,28 @@
         <v>13</v>
       </c>
       <c r="C13" s="9">
-        <v>0.8719585413638374</v>
+        <v>0.8438890466723469</v>
       </c>
       <c r="D13" s="9">
-        <v>0.7825317575680971</v>
+        <v>0.740130645</v>
       </c>
       <c r="E13" s="9">
-        <v>0.8485748593819125</v>
+        <v>0.817807441</v>
       </c>
       <c r="F13" s="9">
-        <v>0.7685647475194337</v>
+        <v>0.739136609</v>
       </c>
       <c r="G13" s="9">
-        <v>0.8394741831511091</v>
+        <v>0.787418347</v>
       </c>
       <c r="H13" s="9">
-        <v>0.7858813120141566</v>
+        <v>0.788459718</v>
       </c>
       <c r="I13" s="9">
-        <v>0.6468432029324401</v>
+        <v>0.633674146</v>
       </c>
       <c r="J13" s="9">
-        <v>0.571193831763888</v>
+        <v>0.585865758</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>24</v>
@@ -1459,37 +1459,37 @@
         <v>24</v>
       </c>
       <c r="M13" s="9">
-        <v>0.7932756114516842</v>
+        <v>0.756745243</v>
       </c>
       <c r="N13" s="8">
-        <v>0.9734563609934905</v>
+        <v>0.9651614120000001</v>
       </c>
       <c r="O13" s="9">
-        <v>0.7702079251722177</v>
+        <v>0.749692322</v>
       </c>
       <c r="P13" s="9">
-        <v>0.6453896227011313</v>
+        <v>0.636135568</v>
       </c>
       <c r="Q13" s="9">
-        <v>0.680022751690577</v>
+        <v>0.661696488</v>
       </c>
       <c r="R13" s="9">
-        <v>0.7652151930733742</v>
+        <v>0.734024425</v>
       </c>
       <c r="S13" s="9">
-        <v>0.6453896227011313</v>
+        <v>0.636324908</v>
       </c>
       <c r="T13" s="9">
-        <v>0.7918852303608671</v>
+        <v>0.789453754</v>
       </c>
       <c r="U13" s="9">
-        <v>0.6664349364848638</v>
+        <v>0.6491527030000001</v>
       </c>
       <c r="V13" s="9">
-        <v>0.6364153447513113</v>
+        <v>0.623165767</v>
       </c>
       <c r="W13" s="9">
-        <v>0.266889970296404</v>
+        <v>0.2738805263656158</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1503,25 +1503,25 @@
         <v>0.6954951998030688</v>
       </c>
       <c r="D14" s="9">
-        <v>0.6565192418150488</v>
+        <v>0.656519242</v>
       </c>
       <c r="E14" s="9">
-        <v>0.6682940838598507</v>
+        <v>0.668294084</v>
       </c>
       <c r="F14" s="9">
-        <v>0.6449905637154345</v>
+        <v>0.644990564</v>
       </c>
       <c r="G14" s="9">
-        <v>0.6432263887749241</v>
+        <v>0.643226389</v>
       </c>
       <c r="H14" s="9">
-        <v>0.6327644211044555</v>
+        <v>0.632764421</v>
       </c>
       <c r="I14" s="9">
-        <v>0.5720439812915402</v>
+        <v>0.572043981</v>
       </c>
       <c r="J14" s="9">
-        <v>0.5607614671371133</v>
+        <v>0.560761467</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>24</v>
@@ -1530,34 +1530,34 @@
         <v>24</v>
       </c>
       <c r="M14" s="9">
-        <v>0.6942643800771313</v>
+        <v>0.6954952</v>
       </c>
       <c r="N14" s="9">
-        <v>0.7055468942315583</v>
+        <v>0.705546894</v>
       </c>
       <c r="O14" s="8">
-        <v>0.9481414622138344</v>
+        <v>0.948141462</v>
       </c>
       <c r="P14" s="9">
-        <v>0.6275539509313203</v>
+        <v>0.627553951</v>
       </c>
       <c r="Q14" s="9">
-        <v>0.6913104127348815</v>
+        <v>0.691310413</v>
       </c>
       <c r="R14" s="9">
-        <v>0.6776483137769754</v>
+        <v>0.677648314</v>
       </c>
       <c r="S14" s="9">
-        <v>0.5816443751538525</v>
+        <v>0.581644375</v>
       </c>
       <c r="T14" s="9">
-        <v>0.7034545006974645</v>
+        <v>0.703454501</v>
       </c>
       <c r="U14" s="9">
-        <v>0.628169360794289</v>
+        <v>0.628169361</v>
       </c>
       <c r="V14" s="9">
-        <v>0.5897677853450398</v>
+        <v>0.589767785</v>
       </c>
       <c r="W14" s="9">
         <v>0.2485025026667761</v>
@@ -1574,25 +1574,25 @@
         <v>0.5883099485299302</v>
       </c>
       <c r="D15" s="9">
-        <v>0.5504124656278644</v>
+        <v>0.550412466</v>
       </c>
       <c r="E15" s="9">
-        <v>0.565853486568427</v>
+        <v>0.565853487</v>
       </c>
       <c r="F15" s="9">
-        <v>0.5163223577522386</v>
+        <v>0.516322358</v>
       </c>
       <c r="G15" s="9">
-        <v>0.556581823309596</v>
+        <v>0.556581823</v>
       </c>
       <c r="H15" s="9">
-        <v>0.5499189170133258</v>
+        <v>0.549918917</v>
       </c>
       <c r="I15" s="9">
-        <v>0.467531551857858</v>
+        <v>0.467531552</v>
       </c>
       <c r="J15" s="9">
-        <v>0.484206444334767</v>
+        <v>0.484206444</v>
       </c>
       <c r="K15" s="9" t="s">
         <v>24</v>
@@ -1601,34 +1601,34 @@
         <v>24</v>
       </c>
       <c r="M15" s="9">
-        <v>0.5435380384967919</v>
+        <v>0.568638511</v>
       </c>
       <c r="N15" s="9">
-        <v>0.5782979623492914</v>
+        <v>0.5782979620000001</v>
       </c>
       <c r="O15" s="9">
-        <v>0.571494042163153</v>
+        <v>0.571494042</v>
       </c>
       <c r="P15" s="8">
-        <v>0.9524430656419657</v>
+        <v>0.9524430659999999</v>
       </c>
       <c r="Q15" s="9">
-        <v>0.4936896284284002</v>
+        <v>0.493689628</v>
       </c>
       <c r="R15" s="9">
-        <v>0.5566170767820631</v>
+        <v>0.556617077</v>
       </c>
       <c r="S15" s="9">
-        <v>0.4608686455615878</v>
+        <v>0.460868646</v>
       </c>
       <c r="T15" s="9">
-        <v>0.5665585560177677</v>
+        <v>0.566558556</v>
       </c>
       <c r="U15" s="9">
-        <v>0.483289854050624</v>
+        <v>0.483289854</v>
       </c>
       <c r="V15" s="9">
-        <v>0.4782486074878375</v>
+        <v>0.478248607</v>
       </c>
       <c r="W15" s="9">
         <v>0.2939434534301629</v>
@@ -1642,28 +1642,28 @@
         <v>16</v>
       </c>
       <c r="C16" s="9">
-        <v>0.4942898865465983</v>
+        <v>0.4776737762774282</v>
       </c>
       <c r="D16" s="9">
-        <v>0.4023289774216497</v>
+        <v>0.345864662</v>
       </c>
       <c r="E16" s="9">
-        <v>0.5032762946044108</v>
+        <v>0.487570968</v>
       </c>
       <c r="F16" s="9">
-        <v>0.3463885872617666</v>
+        <v>0.310725794</v>
       </c>
       <c r="G16" s="9">
-        <v>0.4327704347174898</v>
+        <v>0.355148074</v>
       </c>
       <c r="H16" s="9">
-        <v>0.3803497210469166</v>
+        <v>0.367270216</v>
       </c>
       <c r="I16" s="9">
-        <v>0.5187029617703224</v>
+        <v>0.479745282</v>
       </c>
       <c r="J16" s="9">
-        <v>0.4326581046167671</v>
+        <v>0.447828756</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>24</v>
@@ -1672,37 +1672,37 @@
         <v>24</v>
       </c>
       <c r="M16" s="9">
-        <v>0.4411577489047815</v>
+        <v>0.437547952</v>
       </c>
       <c r="N16" s="9">
-        <v>0.4828696596397948</v>
+        <v>0.468620531</v>
       </c>
       <c r="O16" s="9">
-        <v>0.5024899838993522</v>
+        <v>0.504910235</v>
       </c>
       <c r="P16" s="9">
-        <v>0.4829445463736099</v>
+        <v>0.479668559</v>
       </c>
       <c r="Q16" s="8">
-        <v>0.9275470850338863</v>
+        <v>0.970385147</v>
       </c>
       <c r="R16" s="9">
-        <v>0.5418804058860973</v>
+        <v>0.518796992</v>
       </c>
       <c r="S16" s="9">
-        <v>0.3736099150035571</v>
+        <v>0.37755102</v>
       </c>
       <c r="T16" s="9">
-        <v>0.4884112779421125</v>
+        <v>0.482584011</v>
       </c>
       <c r="U16" s="9">
-        <v>0.4594675553225746</v>
+        <v>0.450283873</v>
       </c>
       <c r="V16" s="9">
-        <v>0.3671322125285505</v>
+        <v>0.360902256</v>
       </c>
       <c r="W16" s="9">
-        <v>0.2425955741940315</v>
+        <v>0.2832591683289857</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1716,25 +1716,25 @@
         <v>0.7035303296274624</v>
       </c>
       <c r="D17" s="9">
-        <v>0.605129705480788</v>
+        <v>0.605129705</v>
       </c>
       <c r="E17" s="9">
-        <v>0.655061439438268</v>
+        <v>0.655061439</v>
       </c>
       <c r="F17" s="9">
-        <v>0.6150770431051297</v>
+        <v>0.615077043</v>
       </c>
       <c r="G17" s="9">
-        <v>0.6090306221962161</v>
+        <v>0.609030622</v>
       </c>
       <c r="H17" s="9">
-        <v>0.6302906182952994</v>
+        <v>0.630290618</v>
       </c>
       <c r="I17" s="9">
-        <v>0.6277550224302711</v>
+        <v>0.627755022</v>
       </c>
       <c r="J17" s="9">
-        <v>0.6203432806709577</v>
+        <v>0.620343281</v>
       </c>
       <c r="K17" s="9" t="s">
         <v>24</v>
@@ -1743,34 +1743,34 @@
         <v>24</v>
       </c>
       <c r="M17" s="9">
-        <v>0.6715428125609518</v>
+        <v>0.676223913</v>
       </c>
       <c r="N17" s="9">
-        <v>0.6914374878096352</v>
+        <v>0.691437488</v>
       </c>
       <c r="O17" s="9">
-        <v>0.6979715233079774</v>
+        <v>0.697971523</v>
       </c>
       <c r="P17" s="9">
-        <v>0.5769455822118198</v>
+        <v>0.576945582</v>
       </c>
       <c r="Q17" s="9">
-        <v>0.6303881412131851</v>
+        <v>0.630388141</v>
       </c>
       <c r="R17" s="8">
-        <v>0.941876340940121</v>
+        <v>0.941876341</v>
       </c>
       <c r="S17" s="9">
-        <v>0.5473961380924517</v>
+        <v>0.547396138</v>
       </c>
       <c r="T17" s="9">
-        <v>0.6609128145114102</v>
+        <v>0.660912815</v>
       </c>
       <c r="U17" s="9">
-        <v>0.6403354788375268</v>
+        <v>0.640335479</v>
       </c>
       <c r="V17" s="9">
-        <v>0.5786034718158767</v>
+        <v>0.578603472</v>
       </c>
       <c r="W17" s="9">
         <v>0.2672127950068266</v>
@@ -1787,25 +1787,25 @@
         <v>0.6030424008810573</v>
       </c>
       <c r="D18" s="9">
-        <v>0.6261357378854625</v>
+        <v>0.626135738</v>
       </c>
       <c r="E18" s="9">
-        <v>0.6510187224669604</v>
+        <v>0.651018722</v>
       </c>
       <c r="F18" s="9">
-        <v>0.6603111233480177</v>
+        <v>0.6603111230000001</v>
       </c>
       <c r="G18" s="9">
-        <v>0.6542194383259912</v>
+        <v>0.654219438</v>
       </c>
       <c r="H18" s="9">
-        <v>0.662961178414097</v>
+        <v>0.662961178</v>
       </c>
       <c r="I18" s="9">
-        <v>0.4665129405286343</v>
+        <v>0.466512941</v>
       </c>
       <c r="J18" s="9">
-        <v>0.5424008810572687</v>
+        <v>0.5424008809999999</v>
       </c>
       <c r="K18" s="9" t="s">
         <v>24</v>
@@ -1814,34 +1814,34 @@
         <v>24</v>
       </c>
       <c r="M18" s="9">
-        <v>0.6717373348017621</v>
+        <v>0.652636289</v>
       </c>
       <c r="N18" s="9">
-        <v>0.5567524779735683</v>
+        <v>0.5567524780000001</v>
       </c>
       <c r="O18" s="9">
-        <v>0.5299765969162996</v>
+        <v>0.529976597</v>
       </c>
       <c r="P18" s="9">
-        <v>0.4578400330396476</v>
+        <v>0.457840033</v>
       </c>
       <c r="Q18" s="9">
-        <v>0.4740501101321586</v>
+        <v>0.47405011</v>
       </c>
       <c r="R18" s="9">
-        <v>0.5228180066079295</v>
+        <v>0.522818007</v>
       </c>
       <c r="S18" s="8">
-        <v>0.9678207599118943</v>
+        <v>0.9678207599999999</v>
       </c>
       <c r="T18" s="9">
-        <v>0.7954983480176211</v>
+        <v>0.795498348</v>
       </c>
       <c r="U18" s="9">
-        <v>0.6192868942731278</v>
+        <v>0.619286894</v>
       </c>
       <c r="V18" s="9">
-        <v>0.5195140418502202</v>
+        <v>0.519514042</v>
       </c>
       <c r="W18" s="9">
         <v>0.2971181376820615</v>
@@ -1858,25 +1858,25 @@
         <v>0.6258175331968026</v>
       </c>
       <c r="D19" s="9">
-        <v>0.559291801545881</v>
+        <v>0.5592918019999999</v>
       </c>
       <c r="E19" s="9">
-        <v>0.6430600515293652</v>
+        <v>0.643060052</v>
       </c>
       <c r="F19" s="9">
-        <v>0.5401995111316641</v>
+        <v>0.540199511</v>
       </c>
       <c r="G19" s="9">
-        <v>0.5496465614058268</v>
+        <v>0.549646561</v>
       </c>
       <c r="H19" s="9">
-        <v>0.5993922177445993</v>
+        <v>0.599392218</v>
       </c>
       <c r="I19" s="9">
-        <v>0.4410385148972716</v>
+        <v>0.441038515</v>
       </c>
       <c r="J19" s="9">
-        <v>0.469709982162912</v>
+        <v>0.469709982</v>
       </c>
       <c r="K19" s="9" t="s">
         <v>24</v>
@@ -1885,34 +1885,34 @@
         <v>24</v>
       </c>
       <c r="M19" s="9">
-        <v>0.616898989231684</v>
+        <v>0.570456497</v>
       </c>
       <c r="N19" s="9">
-        <v>0.4909823611019357</v>
+        <v>0.490982361</v>
       </c>
       <c r="O19" s="9">
-        <v>0.4625751469908172</v>
+        <v>0.462575147</v>
       </c>
       <c r="P19" s="9">
-        <v>0.4131598070951972</v>
+        <v>0.413159807</v>
       </c>
       <c r="Q19" s="9">
-        <v>0.4547136156437868</v>
+        <v>0.454713616</v>
       </c>
       <c r="R19" s="9">
-        <v>0.4656140582678206</v>
+        <v>0.465614058</v>
       </c>
       <c r="S19" s="9">
-        <v>0.6397568870978397</v>
+        <v>0.639756887</v>
       </c>
       <c r="T19" s="8">
-        <v>0.9672986721278986</v>
+        <v>0.967298672</v>
       </c>
       <c r="U19" s="9">
-        <v>0.5848582942458875</v>
+        <v>0.584858294</v>
       </c>
       <c r="V19" s="9">
-        <v>0.5290348153531083</v>
+        <v>0.529034815</v>
       </c>
       <c r="W19" s="9">
         <v>0.2026161062297681</v>
@@ -1929,25 +1929,25 @@
         <v>0.3560162235241099</v>
       </c>
       <c r="D20" s="9">
-        <v>0.2118071203244705</v>
+        <v>0.21180712</v>
       </c>
       <c r="E20" s="9">
-        <v>0.3433979269941415</v>
+        <v>0.343397927</v>
       </c>
       <c r="F20" s="9">
-        <v>0.3249211356466877</v>
+        <v>0.324921136</v>
       </c>
       <c r="G20" s="9">
-        <v>0.1825146462370437</v>
+        <v>0.182514646</v>
       </c>
       <c r="H20" s="9">
-        <v>0.2947273546642632</v>
+        <v>0.294727355</v>
       </c>
       <c r="I20" s="9">
-        <v>0.2609283461018477</v>
+        <v>0.260928346</v>
       </c>
       <c r="J20" s="9">
-        <v>0.3258224425416855</v>
+        <v>0.325822443</v>
       </c>
       <c r="K20" s="9" t="s">
         <v>24</v>
@@ -1956,34 +1956,34 @@
         <v>24</v>
       </c>
       <c r="M20" s="9">
-        <v>0.3668319062640829</v>
+        <v>0.332582244</v>
       </c>
       <c r="N20" s="9">
-        <v>0.3091482649842272</v>
+        <v>0.309148265</v>
       </c>
       <c r="O20" s="9">
-        <v>0.2690401081568274</v>
+        <v>0.269040108</v>
       </c>
       <c r="P20" s="9">
-        <v>0.288418206399279</v>
+        <v>0.288418206</v>
       </c>
       <c r="Q20" s="9">
-        <v>0.2947273546642632</v>
+        <v>0.294727355</v>
       </c>
       <c r="R20" s="9">
-        <v>0.281207751239297</v>
+        <v>0.281207751</v>
       </c>
       <c r="S20" s="9">
-        <v>0.2893195132942767</v>
+        <v>0.289319513</v>
       </c>
       <c r="T20" s="9">
-        <v>0.3560162235241099</v>
+        <v>0.356016224</v>
       </c>
       <c r="U20" s="8">
-        <v>0.821991888237945</v>
+        <v>0.821991888</v>
       </c>
       <c r="V20" s="9">
-        <v>0.3600721045515998</v>
+        <v>0.360072105</v>
       </c>
       <c r="W20" s="9">
         <v>0.199188823794502</v>
@@ -2000,25 +2000,25 @@
         <v>0.2721033143682832</v>
       </c>
       <c r="D21" s="9">
-        <v>0.1608416869863632</v>
+        <v>0.160841687</v>
       </c>
       <c r="E21" s="9">
-        <v>0.3312562087961708</v>
+        <v>0.331256209</v>
       </c>
       <c r="F21" s="9">
-        <v>0.2509708299467173</v>
+        <v>0.25097083</v>
       </c>
       <c r="G21" s="9">
-        <v>0.1302266775038382</v>
+        <v>0.130226678</v>
       </c>
       <c r="H21" s="9">
-        <v>0.2629820283572654</v>
+        <v>0.262982028</v>
       </c>
       <c r="I21" s="9">
-        <v>0.1911857671814323</v>
+        <v>0.191185767</v>
       </c>
       <c r="J21" s="9">
-        <v>0.31987717872302</v>
+        <v>0.319877179</v>
       </c>
       <c r="K21" s="9" t="s">
         <v>24</v>
@@ -2027,34 +2027,34 @@
         <v>24</v>
       </c>
       <c r="M21" s="9">
-        <v>0.3283662963966405</v>
+        <v>0.312742707</v>
       </c>
       <c r="N21" s="9">
-        <v>0.3204190372979319</v>
+        <v>0.320419037</v>
       </c>
       <c r="O21" s="9">
-        <v>0.3256570035220807</v>
+        <v>0.325657004</v>
       </c>
       <c r="P21" s="9">
-        <v>0.3105752731870315</v>
+        <v>0.310575273</v>
       </c>
       <c r="Q21" s="9">
-        <v>0.3010927481260725</v>
+        <v>0.301092748</v>
       </c>
       <c r="R21" s="9">
-        <v>0.287636593515759</v>
+        <v>0.287636594</v>
       </c>
       <c r="S21" s="9">
-        <v>0.1903729793190644</v>
+        <v>0.190372979</v>
       </c>
       <c r="T21" s="9">
-        <v>0.332972094283392</v>
+        <v>0.332972094</v>
       </c>
       <c r="U21" s="9">
-        <v>0.3800234805382462</v>
+        <v>0.380023481</v>
       </c>
       <c r="V21" s="8">
-        <v>0.9293777657364761</v>
+        <v>0.929377766</v>
       </c>
       <c r="W21" s="9">
         <v>0.1919985550438002</v>
@@ -2066,28 +2066,28 @@
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="8">
-        <v>0.6648205127208091</v>
+        <v>0.6617763327543915</v>
       </c>
       <c r="D23" s="9">
-        <v>0.566311368588379</v>
+        <v>0.5592203814638625</v>
       </c>
       <c r="E23" s="9">
-        <v>0.6446529423954651</v>
+        <v>0.6424954660304368</v>
       </c>
       <c r="F23" s="9">
-        <v>0.5730626557827011</v>
+        <v>0.5734675231162745</v>
       </c>
       <c r="G23" s="9">
-        <v>0.6002593076629769</v>
+        <v>0.5937715480022209</v>
       </c>
       <c r="H23" s="9">
-        <v>0.6018181900646423</v>
+        <v>0.595198874544155</v>
       </c>
       <c r="I23" s="9">
-        <v>0.5305759690672321</v>
+        <v>0.5251078739395295</v>
       </c>
       <c r="J23" s="9">
-        <v>0.5168740505673255</v>
+        <v>0.5203646579469322</v>
       </c>
       <c r="K23" s="9" t="s">
         <v>24</v>
@@ -2096,37 +2096,37 @@
         <v>24</v>
       </c>
       <c r="M23" s="9">
-        <v>0.6262619994781277</v>
+        <v>0.6147214894463868</v>
       </c>
       <c r="N23" s="9">
-        <v>0.5810725741761752</v>
+        <v>0.5831534625300238</v>
       </c>
       <c r="O23" s="9">
-        <v>0.5494341083469245</v>
+        <v>0.5535514365826156</v>
       </c>
       <c r="P23" s="9">
-        <v>0.5077087747164889</v>
+        <v>0.5095203415248286</v>
       </c>
       <c r="Q23" s="9">
-        <v>0.521699443925098</v>
+        <v>0.5228224031439486</v>
       </c>
       <c r="R23" s="9">
-        <v>0.5467716662948469</v>
+        <v>0.5463933621973337</v>
       </c>
       <c r="S23" s="9">
-        <v>0.5309354046696917</v>
+        <v>0.5279745795429256</v>
       </c>
       <c r="T23" s="9">
-        <v>0.6313280869458092</v>
+        <v>0.6299158279830731</v>
       </c>
       <c r="U23" s="9">
-        <v>0.581702927634712</v>
+        <v>0.5823802341198636</v>
       </c>
       <c r="V23" s="9">
-        <v>0.4968242534757739</v>
+        <v>0.5002231067041514</v>
       </c>
       <c r="W23" s="9">
-        <v>0.2361046209457864</v>
+        <v>0.2387317359870775</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2204,28 +2204,28 @@
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="8">
-        <v>0.8537326185835475</v>
+        <v>0.8522891136544889</v>
       </c>
       <c r="D28" s="9">
-        <v>0.7468035337918678</v>
+        <v>0.7352333781626774</v>
       </c>
       <c r="E28" s="9">
-        <v>0.8421551200046988</v>
+        <v>0.83878529291566</v>
       </c>
       <c r="F28" s="9">
-        <v>0.7455705309465597</v>
+        <v>0.7527406220418436</v>
       </c>
       <c r="G28" s="9">
-        <v>0.8248354903357171</v>
+        <v>0.8180906218084389</v>
       </c>
       <c r="H28" s="9">
-        <v>0.7947672229042058</v>
+        <v>0.7813623290677885</v>
       </c>
       <c r="I28" s="9">
-        <v>0.5873672193290673</v>
+        <v>0.5794311856418436</v>
       </c>
       <c r="J28" s="9">
-        <v>0.5628279612903569</v>
+        <v>0.5663317003319519</v>
       </c>
       <c r="K28" s="9" t="s">
         <v>24</v>
@@ -2234,37 +2234,37 @@
         <v>24</v>
       </c>
       <c r="M28" s="9">
-        <v>0.7511315816193879</v>
+        <v>0.762447600746892</v>
       </c>
       <c r="N28" s="9">
-        <v>0.6890354518646068</v>
+        <v>0.693950378345075</v>
       </c>
       <c r="O28" s="9">
-        <v>0.6102842024400428</v>
+        <v>0.6158560431782829</v>
       </c>
       <c r="P28" s="9">
-        <v>0.560834688671911</v>
+        <v>0.5621206421619575</v>
       </c>
       <c r="Q28" s="9">
-        <v>0.5531502729409851</v>
+        <v>0.5540540974558374</v>
       </c>
       <c r="R28" s="9">
-        <v>0.6166307535202621</v>
+        <v>0.6228185296248901</v>
       </c>
       <c r="S28" s="9">
-        <v>0.65261612677026</v>
+        <v>0.6548875520525975</v>
       </c>
       <c r="T28" s="9">
-        <v>0.7257968190330342</v>
+        <v>0.7233235701130646</v>
       </c>
       <c r="U28" s="9">
-        <v>0.6547148275446647</v>
+        <v>0.6585891857129014</v>
       </c>
       <c r="V28" s="9">
-        <v>0.514277391173825</v>
+        <v>0.5260712762298129</v>
       </c>
       <c r="W28" s="9">
-        <v>0.2058907154132344</v>
+        <v>0.2060100719466038</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2273,28 +2273,28 @@
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="8">
-        <v>0.630472654187297</v>
+        <v>0.6292853962361009</v>
       </c>
       <c r="D29" s="9">
-        <v>0.4941799679128475</v>
+        <v>0.498577458</v>
       </c>
       <c r="E29" s="9">
-        <v>0.5655674463701668</v>
+        <v>0.5700334121999999</v>
       </c>
       <c r="F29" s="9">
-        <v>0.4985183811422861</v>
+        <v>0.5059049722</v>
       </c>
       <c r="G29" s="9">
-        <v>0.5366117236591879</v>
+        <v>0.544638745</v>
       </c>
       <c r="H29" s="9">
-        <v>0.5322883456105589</v>
+        <v>0.5226400604</v>
       </c>
       <c r="I29" s="9">
-        <v>0.5910494518278471</v>
+        <v>0.59001173475</v>
       </c>
       <c r="J29" s="9">
-        <v>0.5291663950071657</v>
+        <v>0.533030527</v>
       </c>
       <c r="K29" s="9" t="s">
         <v>24</v>
@@ -2303,37 +2303,37 @@
         <v>24</v>
       </c>
       <c r="M29" s="9">
-        <v>0.5661438455456467</v>
+        <v>0.52548853475</v>
       </c>
       <c r="N29" s="9">
-        <v>0.5541424105543493</v>
+        <v>0.5590017004</v>
       </c>
       <c r="O29" s="9">
-        <v>0.5296261027645168</v>
+        <v>0.5422048115999999</v>
       </c>
       <c r="P29" s="9">
-        <v>0.4957263131285574</v>
+        <v>0.5035731313999999</v>
       </c>
       <c r="Q29" s="9">
-        <v>0.5146786068595262</v>
+        <v>0.5215265151999999</v>
       </c>
       <c r="R29" s="9">
-        <v>0.5180479478662404</v>
+        <v>0.5200398972</v>
       </c>
       <c r="S29" s="9">
-        <v>0.488743570375764</v>
+        <v>0.4757914466</v>
       </c>
       <c r="T29" s="9">
-        <v>0.5889487384834851</v>
+        <v>0.5882018016</v>
       </c>
       <c r="U29" s="9">
-        <v>0.5324401610488805</v>
+        <v>0.5356578790000001</v>
       </c>
       <c r="V29" s="9">
-        <v>0.4590416170626418</v>
+        <v>0.4617005042</v>
       </c>
       <c r="W29" s="9">
-        <v>0.2553364416183978</v>
+        <v>0.2561708439026856</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2342,28 +2342,28 @@
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="8">
-        <v>0.6707167811741794</v>
+        <v>0.6617796601820474</v>
       </c>
       <c r="D30" s="9">
-        <v>0.5993844295826897</v>
+        <v>0.579611344</v>
       </c>
       <c r="E30" s="9">
-        <v>0.6482120327705737</v>
+        <v>0.6389174838</v>
       </c>
       <c r="F30" s="9">
-        <v>0.5782686598708006</v>
+        <v>0.5652504736</v>
       </c>
       <c r="G30" s="9">
-        <v>0.6162166904298669</v>
+        <v>0.5902810510000001</v>
       </c>
       <c r="H30" s="9">
-        <v>0.5958409978948308</v>
+        <v>0.593740778</v>
       </c>
       <c r="I30" s="9">
-        <v>0.5665753440564864</v>
+        <v>0.5561499966000001</v>
       </c>
       <c r="J30" s="9">
-        <v>0.5338326257046987</v>
+        <v>0.5398011412000001</v>
       </c>
       <c r="K30" s="9" t="s">
         <v>24</v>
@@ -2372,37 +2372,37 @@
         <v>24</v>
       </c>
       <c r="M30" s="9">
-        <v>0.6287557182982682</v>
+        <v>0.6269301638</v>
       </c>
       <c r="N30" s="9">
-        <v>0.6145380010075698</v>
+        <v>0.61097571875</v>
       </c>
       <c r="O30" s="9">
-        <v>0.635540868635675</v>
+        <v>0.6310170305</v>
       </c>
       <c r="P30" s="9">
-        <v>0.5832084255544703</v>
+        <v>0.5800759150000001</v>
       </c>
       <c r="Q30" s="9">
-        <v>0.623852733516761</v>
+        <v>0.6192711675</v>
       </c>
       <c r="R30" s="9">
-        <v>0.6353402473796275</v>
+        <v>0.621771702</v>
       </c>
       <c r="S30" s="9">
-        <v>0.5217817393025161</v>
+        <v>0.5207570174</v>
       </c>
       <c r="T30" s="9">
-        <v>0.6422444759059244</v>
+        <v>0.6405927274000001</v>
       </c>
       <c r="U30" s="9">
-        <v>0.5755394370979757</v>
+        <v>0.570246254</v>
       </c>
       <c r="V30" s="9">
-        <v>0.5300334843857233</v>
+        <v>0.5261375773999999</v>
       </c>
       <c r="W30" s="9">
-        <v>0.2638288591188402</v>
+        <v>0.2733596891596734</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2414,25 +2414,25 @@
         <v>0.4642448679925632</v>
       </c>
       <c r="D31" s="9">
-        <v>0.3895190866855442</v>
+        <v>0.38951908675</v>
       </c>
       <c r="E31" s="9">
-        <v>0.4921832274466594</v>
+        <v>0.4921832275</v>
       </c>
       <c r="F31" s="9">
-        <v>0.4441006500182716</v>
+        <v>0.44410065</v>
       </c>
       <c r="G31" s="9">
-        <v>0.3791518308681749</v>
+        <v>0.37915183075</v>
       </c>
       <c r="H31" s="9">
-        <v>0.4550156947950562</v>
+        <v>0.45501569475</v>
       </c>
       <c r="I31" s="9">
-        <v>0.3399163921772965</v>
+        <v>0.33991639225</v>
       </c>
       <c r="J31" s="9">
-        <v>0.4144526211212216</v>
+        <v>0.41445262125</v>
       </c>
       <c r="K31" s="9" t="s">
         <v>24</v>
@@ -2441,34 +2441,34 @@
         <v>24</v>
       </c>
       <c r="M31" s="9">
-        <v>0.4959586316735424</v>
+        <v>0.46710443425</v>
       </c>
       <c r="N31" s="9">
-        <v>0.4193255353394157</v>
+        <v>0.41932553525</v>
       </c>
       <c r="O31" s="9">
-        <v>0.3968122138965062</v>
+        <v>0.396812214</v>
       </c>
       <c r="P31" s="9">
-        <v>0.3674983299302888</v>
+        <v>0.36749832975</v>
       </c>
       <c r="Q31" s="9">
-        <v>0.3811459571415703</v>
+        <v>0.3811459572500001</v>
       </c>
       <c r="R31" s="9">
-        <v>0.3893191024077015</v>
+        <v>0.3893191025</v>
       </c>
       <c r="S31" s="9">
-        <v>0.3731497932370603</v>
+        <v>0.373149793</v>
       </c>
       <c r="T31" s="9">
-        <v>0.4948288886083743</v>
+        <v>0.4948288886666667</v>
       </c>
       <c r="U31" s="8">
-        <v>0.5280562230190872</v>
+        <v>0.528056223</v>
       </c>
       <c r="V31" s="9">
-        <v>0.4695403205849761</v>
+        <v>0.4695403206666667</v>
       </c>
       <c r="W31" s="9">
         <v>0.2227304056875329</v>
@@ -2480,28 +2480,28 @@
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="8">
-        <v>0.6547917304843968</v>
+        <v>0.6518997595163001</v>
       </c>
       <c r="D33" s="9">
-        <v>0.5574717544932373</v>
+        <v>0.5507353167281693</v>
       </c>
       <c r="E33" s="9">
-        <v>0.6370294566480247</v>
+        <v>0.6349798541039149</v>
       </c>
       <c r="F33" s="9">
-        <v>0.5666145554944796</v>
+        <v>0.566999179460461</v>
       </c>
       <c r="G33" s="9">
-        <v>0.5892039338232367</v>
+        <v>0.5830405621396098</v>
       </c>
       <c r="H33" s="9">
-        <v>0.5944780653011629</v>
+        <v>0.5881897155544471</v>
       </c>
       <c r="I33" s="9">
-        <v>0.5212271018476743</v>
+        <v>0.5163773273104609</v>
       </c>
       <c r="J33" s="9">
-        <v>0.5100699007808607</v>
+        <v>0.513403997445488</v>
       </c>
       <c r="K33" s="9" t="s">
         <v>24</v>
@@ -2510,37 +2510,37 @@
         <v>24</v>
       </c>
       <c r="M33" s="9">
-        <v>0.6104974442842113</v>
+        <v>0.595492683386723</v>
       </c>
       <c r="N33" s="9">
-        <v>0.5692603496914854</v>
+        <v>0.5708133331862687</v>
       </c>
       <c r="O33" s="9">
-        <v>0.5430658469341851</v>
+        <v>0.5464725248195706</v>
       </c>
       <c r="P33" s="9">
-        <v>0.5018169393213069</v>
+        <v>0.5033170045779893</v>
       </c>
       <c r="Q33" s="9">
-        <v>0.5182068926147105</v>
+        <v>0.5189994343514593</v>
       </c>
       <c r="R33" s="9">
-        <v>0.5398345127934578</v>
+        <v>0.5384873078312225</v>
       </c>
       <c r="S33" s="9">
-        <v>0.5090728074214002</v>
+        <v>0.5061464522631494</v>
       </c>
       <c r="T33" s="9">
-        <v>0.6129547305077045</v>
+        <v>0.6117367469449329</v>
       </c>
       <c r="U33" s="9">
-        <v>0.572687662177652</v>
+        <v>0.5731373854282253</v>
       </c>
       <c r="V33" s="9">
-        <v>0.4932232033017916</v>
+        <v>0.4958624196241199</v>
       </c>
       <c r="W33" s="9">
-        <v>0.2369466054595014</v>
+        <v>0.2395677526741239</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -2567,16 +2567,16 @@
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="8">
-        <v>0.8013107527610993</v>
+        <v>0.7964168929418163</v>
       </c>
       <c r="D38" s="9">
-        <v>0.6337755874129374</v>
+        <v>0.6360701622402293</v>
       </c>
       <c r="E38" s="9">
-        <v>0.6059870738875615</v>
+        <v>0.6097599381532086</v>
       </c>
       <c r="F38" s="9">
-        <v>0.636851291130446</v>
+        <v>0.6407178960270941</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -2585,16 +2585,16 @@
       </c>
       <c r="B39" s="13"/>
       <c r="C39" s="9">
-        <v>0.5429397531470573</v>
+        <v>0.5451800073393501</v>
       </c>
       <c r="D39" s="8">
-        <v>0.5621198974602198</v>
+        <v>0.5495102655</v>
       </c>
       <c r="E39" s="9">
-        <v>0.5224442762346381</v>
+        <v>0.5292692111599999</v>
       </c>
       <c r="F39" s="9">
-        <v>0.5172935217426928</v>
+        <v>0.51533790785</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -2603,16 +2603,16 @@
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="9">
-        <v>0.6181065986204902</v>
+        <v>0.6049301317636746</v>
       </c>
       <c r="D40" s="9">
-        <v>0.5763878960198178</v>
+        <v>0.5742937672</v>
       </c>
       <c r="E40" s="8">
-        <v>0.6184960552188207</v>
+        <v>0.61262230675</v>
       </c>
       <c r="F40" s="9">
-        <v>0.5673997841730349</v>
+        <v>0.5644333940499999</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -2621,16 +2621,16 @@
       </c>
       <c r="B41" s="13"/>
       <c r="C41" s="9">
-        <v>0.437369226301045</v>
+        <v>0.4373692262904272</v>
       </c>
       <c r="D41" s="9">
-        <v>0.4167758816573535</v>
+        <v>0.4071578159166667</v>
       </c>
       <c r="E41" s="9">
-        <v>0.3908202277430965</v>
+        <v>0.39082022775</v>
       </c>
       <c r="F41" s="8">
-        <v>0.4663938063623745</v>
+        <v>0.4663938063333333</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -2639,16 +2639,16 @@
       </c>
       <c r="B43" s="13"/>
       <c r="C43" s="9">
-        <v>0.5328051926895309</v>
+        <v>0.529159788464484</v>
       </c>
       <c r="D43" s="9">
-        <v>0.5423131216967029</v>
+        <v>0.5391739151189653</v>
       </c>
       <c r="E43" s="9">
-        <v>0.5064171926217654</v>
+        <v>0.5099497923544029</v>
       </c>
       <c r="F43" s="8">
-        <v>0.5738481990153913</v>
+        <v>0.5734963993090313</v>
       </c>
     </row>
   </sheetData>
